--- a/fuentes/contenidos/grado08/guion02/SolicitudGrafica_LE_08_02_REC330.xlsx
+++ b/fuentes/contenidos/grado08/guion02/SolicitudGrafica_LE_08_02_REC330.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amparo\AULA PLANETA\PROCESO JUNIO 2015\GRADO OCTAVO\LE_08_02_CO\MOTORES Y SOLICITUDES GRAFICAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luz Amparo\Documents\GitHub\Lenguaje\fuentes\contenidos\grado08\guion02\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="7050" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,17 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="193">
   <si>
     <t>Fecha:</t>
   </si>
@@ -593,19 +598,19 @@
     <t>La literatura colombiana de la Colonia</t>
   </si>
   <si>
-    <t>Luz amparo Rubiano</t>
+    <t>Luz Amparo Rubiano</t>
+  </si>
+  <si>
+    <t>LE_08_02_REC330</t>
+  </si>
+  <si>
+    <t>SHUTTER: 128953205</t>
   </si>
   <si>
     <t>Fotografía</t>
   </si>
   <si>
-    <t>http://www.banrepcultural.org/blaavirtual/revistas/credencial/octubre2004/prensa.htm</t>
-  </si>
-  <si>
-    <t>Imagen tomada del portal del Banco de la República. Todas las imágenes indicaban como origen la Biblioteca Nacional.</t>
-  </si>
-  <si>
-    <t>LE_08_02_REC330</t>
+    <t>Pile of newspapers with space</t>
   </si>
 </sst>
 </file>
@@ -615,7 +620,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -665,6 +670,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
       <family val="2"/>
@@ -1022,11 +1033,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1035,7 +1046,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1043,17 +1054,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1063,7 +1074,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1071,12 +1082,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1085,18 +1096,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1126,11 +1137,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1140,10 +1151,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1153,7 +1164,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -1227,16 +1238,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1244,23 +1255,23 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1318,7 +1329,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1370,8 +1381,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1389,7 +1400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1410,44 +1421,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1468,19 +1479,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1507,6 +1518,10 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1518,23 +1533,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1543,15 +1558,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1584,22 +1599,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1629,10 +1644,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1741,7 +1756,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1758,465 +1773,20 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>370417</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>137583</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1398135</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>857583</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="1 Imagen"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12170834" y="2286000"/>
-          <a:ext cx="1027718" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>275168</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>116417</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1320811</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>836417</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="2 Imagen"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12075585" y="3333750"/>
-          <a:ext cx="1045643" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>317501</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1346072</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>847000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="3 Imagen"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12117918" y="4254500"/>
-          <a:ext cx="1028571" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>296334</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>84667</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1286701</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>804667</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="5 Imagen"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12096751" y="6180667"/>
-          <a:ext cx="990367" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>243417</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>116416</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1324923</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>836416</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="6 Imagen"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12043834" y="5249333"/>
-          <a:ext cx="1081506" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>359832</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>84666</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1371880</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>804666</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="7 Imagen"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12160249" y="7884583"/>
-          <a:ext cx="1012048" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>74084</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1362674</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>794084</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="8 Imagen"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12086168" y="7027334"/>
-          <a:ext cx="1076923" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>328084</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>105833</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1382477</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>825833</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="9 Imagen"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12128501" y="8815916"/>
-          <a:ext cx="1054393" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>508001</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1162218</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>995250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="10 Imagen"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12287251" y="9747250"/>
-          <a:ext cx="654217" cy="900000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1157822</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>1042875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="11 Imagen"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12319000" y="10842625"/>
-          <a:ext cx="618072" cy="900000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1038225</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2263,15 +1833,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1047750</xdr:colOff>
+          <xdr:colOff>1057275</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>866775</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2318,15 +1888,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2434,7 +2004,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>828675</xdr:colOff>
+          <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
@@ -2483,7 +2053,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
@@ -2538,7 +2108,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
@@ -2916,24 +2486,24 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.5" style="15" customWidth="1"/>
-    <col min="11" max="11" width="20.125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="34.875" style="15" customWidth="1"/>
+    <col min="11" max="11" width="29.625" style="15" customWidth="1"/>
     <col min="12" max="12" width="20.375" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" hidden="1" customWidth="1"/>
     <col min="14" max="15" width="10.875" style="2" hidden="1" customWidth="1"/>
@@ -2964,14 +2534,14 @@
       <c r="B2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="F2" s="77" t="s">
+      <c r="D2" s="86"/>
+      <c r="F2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="78"/>
+      <c r="G2" s="79"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="14"/>
@@ -2995,14 +2565,14 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="86">
+      <c r="C3" s="87">
         <v>8</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="F3" s="79">
-        <v>42251</v>
-      </c>
-      <c r="G3" s="80"/>
+      <c r="D3" s="88"/>
+      <c r="F3" s="80">
+        <v>42318</v>
+      </c>
+      <c r="G3" s="81"/>
       <c r="H3" s="58"/>
       <c r="I3" s="38"/>
       <c r="J3" s="14"/>
@@ -3026,10 +2596,10 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="87"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="5"/>
       <c r="F4" s="37" t="s">
         <v>55</v>
@@ -3058,16 +2628,16 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="89" t="s">
         <v>188</v>
       </c>
-      <c r="D5" s="89"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="5"/>
       <c r="F5" s="37" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
         <v>Motor del recurso</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="61" t="s">
         <v>141</v>
       </c>
       <c r="H5" s="58"/>
@@ -3115,8 +2685,8 @@
       <c r="B7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="73" t="s">
-        <v>192</v>
+      <c r="C7" s="74" t="s">
+        <v>189</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>39</v>
@@ -3145,12 +2715,12 @@
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="81" t="s">
+      <c r="F8" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="84"/>
       <c r="J8" s="16"/>
       <c r="K8" s="11"/>
       <c r="M8" s="2" t="str">
@@ -3206,7 +2776,7 @@
         <v>M10B</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="11" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
@@ -3219,7 +2789,7 @@
         <v>Recurso F10B</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E10" s="63" t="s">
         <v>155</v>
@@ -3240,40 +2810,34 @@
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J10" s="63"/>
-      <c r="K10" s="64" t="s">
-        <v>191</v>
-      </c>
+      <c r="J10" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="K10" s="64"/>
       <c r="O10" s="2" t="str">
         <f>'Definición técnica de imagenes'!A12</f>
         <v>M12D</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="11" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="str">
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
-        <v>IMG02</v>
-      </c>
-      <c r="B11" s="62" t="s">
-        <v>190</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B11" s="62"/>
       <c r="C11" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso F10B</v>
-      </c>
-      <c r="D11" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="E11" s="63" t="s">
-        <v>155</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="13" t="str">
-        <f t="shared" ref="F11:F74" ca="1" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>LE_08_02_REC330_IMG02.jpg</v>
-      </c>
-      <c r="G11" s="13">
+        <f t="shared" ref="F11:F74" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v/>
+      </c>
+      <c r="G11" s="13" t="str">
         <f ca="1">IF($F11&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="H11" s="13" t="str">
         <f t="shared" ref="H11:H74" ca="1" si="5">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
@@ -3284,39 +2848,31 @@
         <v/>
       </c>
       <c r="J11" s="64"/>
-      <c r="K11" s="64" t="s">
-        <v>191</v>
-      </c>
+      <c r="K11" s="65"/>
       <c r="O11" s="2" t="str">
         <f>'Definición técnica de imagenes'!A13</f>
         <v>M101</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="11" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>IMG03</v>
-      </c>
-      <c r="B12" s="62" t="s">
-        <v>190</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B12" s="62"/>
       <c r="C12" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso F10B</v>
-      </c>
-      <c r="D12" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="E12" s="63" t="s">
-        <v>155</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>LE_08_02_REC330_IMG03.jpg</v>
-      </c>
-      <c r="G12" s="13">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G12" s="13" t="str">
         <f ca="1">IF($F12&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="H12" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3327,39 +2883,31 @@
         <v/>
       </c>
       <c r="J12" s="64"/>
-      <c r="K12" s="64" t="s">
-        <v>191</v>
-      </c>
+      <c r="K12" s="64"/>
       <c r="O12" s="2" t="str">
         <f>'Definición técnica de imagenes'!A18</f>
         <v>Diaporama F1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>IMG04</v>
-      </c>
-      <c r="B13" s="62" t="s">
-        <v>190</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B13" s="62"/>
       <c r="C13" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso F10B</v>
-      </c>
-      <c r="D13" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="E13" s="63" t="s">
-        <v>155</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>LE_08_02_REC330_IMG04.jpg</v>
-      </c>
-      <c r="G13" s="13">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G13" s="13" t="str">
         <f ca="1">IF($F13&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="H13" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3370,39 +2918,31 @@
         <v/>
       </c>
       <c r="J13" s="64"/>
-      <c r="K13" s="64" t="s">
-        <v>191</v>
-      </c>
+      <c r="K13" s="64"/>
       <c r="O13" s="2" t="str">
         <f>'Definición técnica de imagenes'!A19</f>
         <v>F4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>IMG05</v>
-      </c>
-      <c r="B14" s="62" t="s">
-        <v>190</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B14" s="62"/>
       <c r="C14" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso F10B</v>
-      </c>
-      <c r="D14" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="E14" s="63" t="s">
-        <v>155</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
       <c r="F14" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>LE_08_02_REC330_IMG05.jpg</v>
-      </c>
-      <c r="G14" s="13">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G14" s="13" t="str">
         <f ca="1">IF($F14&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="H14" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3413,39 +2953,31 @@
         <v/>
       </c>
       <c r="J14" s="64"/>
-      <c r="K14" s="64" t="s">
-        <v>191</v>
-      </c>
+      <c r="K14" s="64"/>
       <c r="O14" s="2" t="str">
         <f>'Definición técnica de imagenes'!A22</f>
         <v>F6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>IMG06</v>
-      </c>
-      <c r="B15" s="62" t="s">
-        <v>190</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B15" s="62"/>
       <c r="C15" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso F10B</v>
-      </c>
-      <c r="D15" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="E15" s="63" t="s">
-        <v>155</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
       <c r="F15" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>LE_08_02_REC330_IMG06.jpg</v>
-      </c>
-      <c r="G15" s="13">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G15" s="13" t="str">
         <f ca="1">IF($F15&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="H15" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3456,39 +2988,31 @@
         <v/>
       </c>
       <c r="J15" s="66"/>
-      <c r="K15" s="64" t="s">
-        <v>191</v>
-      </c>
+      <c r="K15" s="66"/>
       <c r="O15" s="2" t="str">
         <f>'Definición técnica de imagenes'!A24</f>
         <v>F6B</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>IMG07</v>
-      </c>
-      <c r="B16" s="62" t="s">
-        <v>190</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B16" s="62"/>
       <c r="C16" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso F10B</v>
-      </c>
-      <c r="D16" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="E16" s="63" t="s">
-        <v>155</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
       <c r="F16" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>LE_08_02_REC330_IMG07.jpg</v>
-      </c>
-      <c r="G16" s="13">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G16" s="13" t="str">
         <f ca="1">IF($F16&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="H16" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3499,39 +3023,31 @@
         <v/>
       </c>
       <c r="J16" s="67"/>
-      <c r="K16" s="64" t="s">
-        <v>191</v>
-      </c>
+      <c r="K16" s="68"/>
       <c r="O16" s="2" t="str">
         <f>'Definición técnica de imagenes'!A25</f>
         <v>F7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>IMG08</v>
-      </c>
-      <c r="B17" s="62" t="s">
-        <v>190</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B17" s="62"/>
       <c r="C17" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso F10B</v>
-      </c>
-      <c r="D17" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="E17" s="63" t="s">
-        <v>155</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
       <c r="F17" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>LE_08_02_REC330_IMG08.jpg</v>
-      </c>
-      <c r="G17" s="13">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G17" s="13" t="str">
         <f ca="1">IF($F17&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="H17" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3542,39 +3058,31 @@
         <v/>
       </c>
       <c r="J17" s="66"/>
-      <c r="K17" s="64" t="s">
-        <v>191</v>
-      </c>
+      <c r="K17" s="66"/>
       <c r="O17" s="2" t="str">
         <f>'Definición técnica de imagenes'!A27</f>
         <v>F7B</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>IMG09</v>
-      </c>
-      <c r="B18" s="62" t="s">
-        <v>190</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B18" s="62"/>
       <c r="C18" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso F10B</v>
-      </c>
-      <c r="D18" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="E18" s="63" t="s">
-        <v>155</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
       <c r="F18" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>LE_08_02_REC330_IMG09.jpg</v>
-      </c>
-      <c r="G18" s="13">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G18" s="13" t="str">
         <f ca="1">IF($F18&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="H18" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3585,39 +3093,31 @@
         <v/>
       </c>
       <c r="J18" s="66"/>
-      <c r="K18" s="64" t="s">
-        <v>191</v>
-      </c>
+      <c r="K18" s="66"/>
       <c r="O18" s="2" t="str">
         <f>'Definición técnica de imagenes'!A30</f>
         <v>F8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="str">
         <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
-        <v>IMG10</v>
-      </c>
-      <c r="B19" s="62" t="s">
-        <v>190</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B19" s="62"/>
       <c r="C19" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso F10B</v>
-      </c>
-      <c r="D19" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="E19" s="63" t="s">
-        <v>155</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
       <c r="F19" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>LE_08_02_REC330_IMG10.jpg</v>
-      </c>
-      <c r="G19" s="13">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G19" s="13" t="str">
         <f ca="1">IF($F19&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="H19" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3628,9 +3128,7 @@
         <v/>
       </c>
       <c r="J19" s="67"/>
-      <c r="K19" s="64" t="s">
-        <v>191</v>
-      </c>
+      <c r="K19" s="68"/>
       <c r="O19" s="2" t="str">
         <f>'Definición técnica de imagenes'!A31</f>
         <v>F10</v>
@@ -3735,7 +3233,7 @@
         <v/>
       </c>
       <c r="J22" s="63"/>
-      <c r="K22" s="68"/>
+      <c r="K22" s="69"/>
       <c r="O22" s="2" t="str">
         <f>'Definición técnica de imagenes'!A34</f>
         <v>F12</v>
@@ -4215,7 +3713,7 @@
         <f ca="1">IF(OR($B37&lt;&gt;"",$J37&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J37" s="69"/>
+      <c r="J37" s="70"/>
       <c r="K37" s="65"/>
     </row>
     <row r="38" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4246,7 +3744,7 @@
         <f ca="1">IF(OR($B38&lt;&gt;"",$J38&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E38,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E38,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J38" s="70"/>
+      <c r="J38" s="71"/>
       <c r="K38" s="65"/>
     </row>
     <row r="39" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -6461,7 +5959,6 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6474,37 +5971,37 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.25" style="22" customWidth="1"/>
-    <col min="2" max="2" width="11" style="22"/>
+    <col min="1" max="1" width="72.125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="22"/>
     <col min="3" max="3" width="13.875" style="22" customWidth="1"/>
     <col min="4" max="4" width="11.375" style="22" customWidth="1"/>
-    <col min="5" max="7" width="11" style="22"/>
+    <col min="5" max="7" width="10.875" style="22"/>
     <col min="8" max="11" width="11" style="22" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="22"/>
+    <col min="12" max="16384" width="10.875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="94"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="31"/>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="98"/>
       <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -6512,11 +6009,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="31"/>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="104"/>
       <c r="F3" s="32"/>
       <c r="H3" s="22" t="s">
         <v>18</v>
@@ -6567,11 +6064,11 @@
       <c r="C5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="104" t="str">
+      <c r="D5" s="105" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="105"/>
+      <c r="E5" s="106"/>
       <c r="F5" s="32"/>
       <c r="H5" s="22" t="s">
         <v>22</v>
@@ -6616,12 +6113,12 @@
       <c r="C7" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="90" t="str">
+      <c r="D7" s="91" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="92"/>
       <c r="H7" s="22" t="s">
         <v>24</v>
       </c>
@@ -6715,14 +6212,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="94"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="95"/>
       <c r="I13" s="22" t="s">
         <v>33</v>
       </c>
@@ -6755,12 +6252,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="31"/>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="98"/>
       <c r="J15" s="22">
         <v>12</v>
       </c>
@@ -6768,7 +6265,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>47</v>
       </c>
@@ -6800,12 +6297,12 @@
       <c r="C17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="98" t="str">
+      <c r="D17" s="99" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="99"/>
-      <c r="F17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="101"/>
       <c r="J17" s="22">
         <v>14</v>
       </c>
@@ -6821,12 +6318,12 @@
       <c r="C18" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="90" t="str">
+      <c r="D18" s="91" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="92"/>
       <c r="J18" s="22">
         <v>15</v>
       </c>
@@ -7067,7 +6564,7 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>828675</xdr:colOff>
+                    <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>714375</xdr:rowOff>
                   </to>
@@ -7083,7 +6580,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>485775</xdr:rowOff>
                   </from>
@@ -7105,7 +6602,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>485775</xdr:rowOff>
                   </from>
@@ -7127,15 +6624,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>1038225</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7149,15 +6646,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1047750</xdr:colOff>
+                    <xdr:colOff>1057275</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>866775</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7171,15 +6668,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>0</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7204,53 +6701,53 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="22" customWidth="1"/>
-    <col min="2" max="2" width="24.25" style="22" customWidth="1"/>
+    <col min="2" max="2" width="24.125" style="22" customWidth="1"/>
     <col min="3" max="3" width="17" style="22" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="22" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="22" customWidth="1"/>
     <col min="5" max="5" width="6.875" style="22" customWidth="1"/>
     <col min="6" max="6" width="12.875" style="22" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="22" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="22" customWidth="1"/>
     <col min="8" max="8" width="24.5" style="22" customWidth="1"/>
-    <col min="9" max="9" width="27.25" style="22" customWidth="1"/>
+    <col min="9" max="9" width="27.125" style="22" customWidth="1"/>
     <col min="10" max="10" width="44.5" style="22" customWidth="1"/>
     <col min="11" max="16384" width="10.875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="E1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="107" t="s">
+      <c r="F1" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="106" t="s">
+      <c r="H1" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="106"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
       <c r="H2" s="39" t="s">
         <v>65</v>
       </c>
@@ -7258,7 +6755,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>69</v>
       </c>
@@ -7283,7 +6780,7 @@
       </c>
       <c r="I3" s="40"/>
     </row>
-    <row r="4" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>57</v>
       </c>
@@ -7312,7 +6809,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>77</v>
       </c>
@@ -7341,7 +6838,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>58</v>
       </c>
@@ -7370,7 +6867,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>58</v>
       </c>
@@ -7395,7 +6892,7 @@
       </c>
       <c r="I7" s="42"/>
     </row>
-    <row r="8" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
         <v>80</v>
       </c>
@@ -7424,7 +6921,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
         <v>82</v>
       </c>
@@ -7453,7 +6950,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>84</v>
       </c>
@@ -7482,7 +6979,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
         <v>86</v>
       </c>
@@ -7507,14 +7004,14 @@
       </c>
       <c r="I11" s="42"/>
     </row>
-    <row r="12" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
         <v>89</v>
       </c>
       <c r="B12" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="73" t="s">
         <v>90</v>
       </c>
       <c r="D12" s="42" t="s">
@@ -7536,7 +7033,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
         <v>91</v>
       </c>
@@ -7565,7 +7062,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>94</v>
       </c>
@@ -7588,33 +7085,33 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="76" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="74" t="s">
+    <row r="15" spans="1:10" s="77" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74" t="s">
+      <c r="B15" s="75"/>
+      <c r="C15" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="74" t="s">
+      <c r="E15" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="74" t="s">
+      <c r="F15" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="74"/>
-      <c r="H15" s="75" t="s">
+      <c r="G15" s="75"/>
+      <c r="H15" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="I15" s="74"/>
-      <c r="J15" s="76" t="s">
+      <c r="I15" s="75"/>
+      <c r="J15" s="77" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="46" t="s">
         <v>100</v>
       </c>
@@ -7642,7 +7139,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
         <v>103</v>
       </c>
@@ -7670,7 +7167,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
         <v>184</v>
       </c>
@@ -7696,7 +7193,7 @@
       <c r="I18" s="44"/>
       <c r="J18" s="49"/>
     </row>
-    <row r="19" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
         <v>137</v>
       </c>
@@ -7720,7 +7217,7 @@
       <c r="I19" s="44"/>
       <c r="J19" s="49"/>
     </row>
-    <row r="20" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
         <v>137</v>
       </c>
@@ -7744,7 +7241,7 @@
       <c r="I20" s="44"/>
       <c r="J20" s="49"/>
     </row>
-    <row r="21" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
         <v>137</v>
       </c>
@@ -7765,10 +7262,10 @@
       <c r="H21" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="I21" s="71"/>
+      <c r="I21" s="72"/>
       <c r="J21" s="49"/>
     </row>
-    <row r="22" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
         <v>132</v>
       </c>
@@ -7792,7 +7289,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
         <v>132</v>
       </c>
@@ -7821,7 +7318,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
         <v>134</v>
       </c>
@@ -7842,9 +7339,9 @@
         <v>176</v>
       </c>
       <c r="H24" s="44"/>
-      <c r="I24" s="71"/>
-    </row>
-    <row r="25" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="72"/>
+    </row>
+    <row r="25" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
         <v>135</v>
       </c>
@@ -7868,7 +7365,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
         <v>135</v>
       </c>
@@ -7897,7 +7394,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
         <v>138</v>
       </c>
@@ -7921,7 +7418,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
         <v>138</v>
       </c>
@@ -7945,7 +7442,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
         <v>138</v>
       </c>
@@ -7974,7 +7471,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
         <v>139</v>
       </c>
@@ -7997,7 +7494,7 @@
       <c r="H30" s="44"/>
       <c r="I30" s="44"/>
     </row>
-    <row r="31" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
         <v>140</v>
       </c>
@@ -8014,7 +7511,7 @@
       <c r="H31" s="44"/>
       <c r="I31" s="44"/>
     </row>
-    <row r="32" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
         <v>141</v>
       </c>
@@ -8029,7 +7526,7 @@
       <c r="H32" s="44"/>
       <c r="I32" s="44"/>
     </row>
-    <row r="33" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
         <v>136</v>
       </c>
@@ -8050,7 +7547,7 @@
       <c r="H33" s="44"/>
       <c r="I33" s="44"/>
     </row>
-    <row r="34" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
         <v>142</v>
       </c>
@@ -8067,7 +7564,7 @@
       <c r="H34" s="44"/>
       <c r="I34" s="44"/>
     </row>
-    <row r="35" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="42" t="s">
         <v>95</v>
       </c>
@@ -8096,7 +7593,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
         <v>95</v>
       </c>
@@ -8125,7 +7622,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="42" t="s">
         <v>143</v>
       </c>
@@ -8148,7 +7645,7 @@
       <c r="H37" s="44"/>
       <c r="I37" s="44"/>
     </row>
-    <row r="38" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="42" t="s">
         <v>143</v>
       </c>
